--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_2.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_14_2.xlsx
@@ -518,1321 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_6</t>
+          <t>model_14_2_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9617098143170362</v>
+        <v>0.9597905891880011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7273468365731168</v>
+        <v>0.8159099513512452</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4937736764910118</v>
+        <v>0.9408277798788764</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9645050216679211</v>
+        <v>0.8557459368696604</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9059670646177393</v>
+        <v>0.9152243564792329</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2560466479720725</v>
+        <v>0.2688805152471495</v>
       </c>
       <c r="H2" t="n">
-        <v>1.823232959287946</v>
+        <v>1.231011002970955</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8201079244156323</v>
+        <v>0.6498436640315025</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3886403063768545</v>
+        <v>0.8838276905764133</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6043740109358015</v>
+        <v>0.7668356773039579</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6569298340234856</v>
+        <v>0.8743742447849102</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5060105216021428</v>
+        <v>0.5185368986361043</v>
       </c>
       <c r="N2" t="n">
-        <v>1.018754376661043</v>
+        <v>1.019694405295673</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5275524370929279</v>
+        <v>0.5406120879304003</v>
       </c>
       <c r="P2" t="n">
-        <v>148.7247912649229</v>
+        <v>148.6269763585907</v>
       </c>
       <c r="Q2" t="n">
-        <v>237.7027264803016</v>
+        <v>237.6049115739694</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_5</t>
+          <t>model_14_2_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9625023169126332</v>
+        <v>0.9613372878551886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7271600503611957</v>
+        <v>0.8158607575171128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5260349829973006</v>
+        <v>0.9458728210030697</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9711566569439374</v>
+        <v>0.8628815849461526</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9156986102818445</v>
+        <v>0.9207036156204302</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2507471794661765</v>
+        <v>0.258537734137774</v>
       </c>
       <c r="H3" t="n">
-        <v>1.824481999547134</v>
+        <v>1.231339962366315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7678432517008414</v>
+        <v>0.5944377995460338</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3158104669727335</v>
+        <v>0.8401084134665975</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5418268484792554</v>
+        <v>0.7172731942585223</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6368218568395174</v>
+        <v>0.8530716031774572</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5007466220217331</v>
+        <v>0.508466059966419</v>
       </c>
       <c r="N3" t="n">
-        <v>1.018366212124425</v>
+        <v>1.01893683860154</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5220644424096059</v>
+        <v>0.5301125128090365</v>
       </c>
       <c r="P3" t="n">
-        <v>148.766620201187</v>
+        <v>148.7054272444661</v>
       </c>
       <c r="Q3" t="n">
-        <v>237.7445554165656</v>
+        <v>237.6833624598448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_7</t>
+          <t>model_14_2_9</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9604579330398334</v>
+        <v>0.9581820076385907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7270308110006389</v>
+        <v>0.8157340175195512</v>
       </c>
       <c r="D4" t="n">
-        <v>0.459300264754018</v>
+        <v>0.9360860601305233</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9580270453505149</v>
+        <v>0.8487153570290087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.896104612135852</v>
+        <v>0.9099648047378882</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2644179838371103</v>
+        <v>0.2796371074748936</v>
       </c>
       <c r="H4" t="n">
-        <v>1.82534622374627</v>
+        <v>1.232187473313594</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8759563005948482</v>
+        <v>0.7019183796459056</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4595687255223723</v>
+        <v>0.9269032269539352</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6677625453882359</v>
+        <v>0.8144108032999204</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6750115745688444</v>
+        <v>0.8933604802234405</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5142158922447947</v>
+        <v>0.5288072498320098</v>
       </c>
       <c r="N4" t="n">
-        <v>1.019367543000898</v>
+        <v>1.020482281972935</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5361071273512963</v>
+        <v>0.5513196692392732</v>
       </c>
       <c r="P4" t="n">
-        <v>148.6604483115589</v>
+        <v>148.5485251222755</v>
       </c>
       <c r="Q4" t="n">
-        <v>237.6383835269376</v>
+        <v>237.5264603376542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_8</t>
+          <t>model_14_2_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.958897552222432</v>
+        <v>0.962754636251456</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7263568742246163</v>
+        <v>0.8155048378814322</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4237601117734111</v>
+        <v>0.9512059811316632</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9518237089597078</v>
+        <v>0.8699412775641779</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8863416746331929</v>
+        <v>0.9263320750299555</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2748522575479672</v>
+        <v>0.2490599188856447</v>
       </c>
       <c r="H5" t="n">
-        <v>1.829852842070727</v>
+        <v>1.233719998608971</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9335328424315196</v>
+        <v>0.5358677423175275</v>
       </c>
       <c r="J5" t="n">
-        <v>0.52749006732252</v>
+        <v>0.7968545065237407</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7305114713152123</v>
+        <v>0.6663611244206341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6912093663267643</v>
+        <v>0.8291406059783398</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5242635382591156</v>
+        <v>0.4990590334676297</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02013181115636</v>
+        <v>1.018242627142144</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5465825224579414</v>
+        <v>0.5203050097169644</v>
       </c>
       <c r="P5" t="n">
-        <v>148.5830431419273</v>
+        <v>148.7801235467423</v>
       </c>
       <c r="Q5" t="n">
-        <v>237.5609783573059</v>
+        <v>237.758058762121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_4</t>
+          <t>model_14_2_10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9626394434799437</v>
+        <v>0.9565612879811271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7262830232557625</v>
+        <v>0.8153972533590628</v>
       </c>
       <c r="D6" t="n">
-        <v>0.554626694492182</v>
+        <v>0.9316532243133485</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9778277191083076</v>
+        <v>0.8419151590845171</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9249842407664453</v>
+        <v>0.904970762556922</v>
       </c>
       <c r="G6" t="n">
-        <v>0.249830213479161</v>
+        <v>0.290474867287081</v>
       </c>
       <c r="H6" t="n">
-        <v>1.830346683839504</v>
+        <v>1.234439416805436</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7215234771639856</v>
+        <v>0.7506008570582177</v>
       </c>
       <c r="J6" t="n">
-        <v>0.242767919399835</v>
+        <v>0.968567240530537</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4821456982819103</v>
+        <v>0.8595842701033618</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6145953394503697</v>
+        <v>0.9103115449774747</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4998301846419051</v>
+        <v>0.5389572035765743</v>
       </c>
       <c r="N6" t="n">
-        <v>1.018299048091456</v>
+        <v>1.021276103845979</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5211089903932317</v>
+        <v>0.5619017275280448</v>
       </c>
       <c r="P6" t="n">
-        <v>148.7739474758548</v>
+        <v>148.4724764435915</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.7518826912335</v>
+        <v>237.4504116589701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_9</t>
+          <t>model_14_2_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9571439172203646</v>
+        <v>0.9549647342805012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7254367151986898</v>
+        <v>0.8149497611234665</v>
       </c>
       <c r="D7" t="n">
-        <v>0.388034288773895</v>
+        <v>0.9275278776457861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9459576420892911</v>
+        <v>0.8354305503872181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8768426119497849</v>
+        <v>0.9002702768675135</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2865788228815384</v>
+        <v>0.3011510292346196</v>
       </c>
       <c r="H7" t="n">
-        <v>1.83600594971404</v>
+        <v>1.237431799445381</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9914101775038692</v>
+        <v>0.7959064140976746</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5917185901410693</v>
+        <v>1.008297675880888</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7915644054894334</v>
+        <v>0.9021023799943493</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7056836589005827</v>
+        <v>0.9254658125012881</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5353305734604912</v>
+        <v>0.5487722926994579</v>
       </c>
       <c r="N7" t="n">
-        <v>1.020990734422679</v>
+        <v>1.022058089331999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5581207042597607</v>
+        <v>0.572134665314925</v>
       </c>
       <c r="P7" t="n">
-        <v>148.4994833143422</v>
+        <v>148.4002867636346</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.4774185297208</v>
+        <v>237.3782219790132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_3</t>
+          <t>model_14_2_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9618675209131471</v>
+        <v>0.9639537878366532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7244739089027135</v>
+        <v>0.8147391448657934</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5776901148709093</v>
+        <v>0.9568004857375977</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9842947059546509</v>
+        <v>0.8766788239079274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9333993205262071</v>
+        <v>0.9320100824249423</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2549920632377066</v>
+        <v>0.2410411867138454</v>
       </c>
       <c r="H8" t="n">
-        <v>1.842444239848549</v>
+        <v>1.23884019133024</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6841597666291118</v>
+        <v>0.4744275366919867</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1719598257651789</v>
+        <v>0.7555743519414243</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4280598028871</v>
+        <v>0.6150008696865614</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5902363255160352</v>
+        <v>0.802214122285384</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5049673882912704</v>
+        <v>0.4909594552647351</v>
       </c>
       <c r="N8" t="n">
-        <v>1.018677132613969</v>
+        <v>1.017655287590211</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5264648954374279</v>
+        <v>0.5118606157015343</v>
       </c>
       <c r="P8" t="n">
-        <v>148.7330457177322</v>
+        <v>148.845574921731</v>
       </c>
       <c r="Q8" t="n">
-        <v>237.7109809331108</v>
+        <v>237.8235101371097</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_10</t>
+          <t>model_14_2_12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9552843493710305</v>
+        <v>0.9534178186284258</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7243559029352042</v>
+        <v>0.8144303612623596</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3527937740042988</v>
+        <v>0.9237039811046207</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9404632600746106</v>
+        <v>0.829312639837182</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8677212618187097</v>
+        <v>0.8958770594028086</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2990137616525581</v>
+        <v>0.3114952613229397</v>
       </c>
       <c r="H9" t="n">
-        <v>1.843233346296651</v>
+        <v>1.24090502870822</v>
       </c>
       <c r="I9" t="n">
-        <v>1.048501292842756</v>
+        <v>0.8379013727810189</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6518774748587741</v>
+        <v>1.045781394781103</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8501896833397692</v>
+        <v>0.9418411038798868</v>
       </c>
       <c r="L9" t="n">
-        <v>0.718600395501133</v>
+        <v>0.939026858712655</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5468215080376393</v>
+        <v>0.5581176052795143</v>
       </c>
       <c r="N9" t="n">
-        <v>1.02190154316521</v>
+        <v>1.022815762304444</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5701008317113718</v>
+        <v>0.5818778271989783</v>
       </c>
       <c r="P9" t="n">
-        <v>148.4145313621135</v>
+        <v>148.3327423066335</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.3924665774921</v>
+        <v>237.3106775220122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_11</t>
+          <t>model_14_2_13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9533840077780729</v>
+        <v>0.9519377300912332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7231795586148605</v>
+        <v>0.8138686467395948</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3185348562810496</v>
+        <v>0.9201709822621364</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9353545044782228</v>
+        <v>0.8235893297260464</v>
       </c>
       <c r="F10" t="n">
-        <v>0.859052171179164</v>
+        <v>0.8917939481149207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3117213546349341</v>
+        <v>0.3213926201863274</v>
       </c>
       <c r="H10" t="n">
-        <v>1.851099566183357</v>
+        <v>1.244661216308405</v>
       </c>
       <c r="I10" t="n">
-        <v>1.10400217970298</v>
+        <v>0.8767016224272105</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7078140730335701</v>
+        <v>1.080847443169683</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9059081723956435</v>
+        <v>0.9787747711446827</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7301779771734844</v>
+        <v>0.9511831103740859</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5583201184221595</v>
+        <v>0.5669150026117913</v>
       </c>
       <c r="N10" t="n">
-        <v>1.022832322720944</v>
+        <v>1.023540703628784</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5820889617453658</v>
+        <v>0.5910497479488134</v>
       </c>
       <c r="P10" t="n">
-        <v>148.3312911686752</v>
+        <v>148.2701835748074</v>
       </c>
       <c r="Q10" t="n">
-        <v>237.3092263840539</v>
+        <v>237.248118790186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_12</t>
+          <t>model_14_2_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9514909691910535</v>
+        <v>0.9648193335403989</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7219566455230029</v>
+        <v>0.8134344186505296</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2856158065919153</v>
+        <v>0.9626131982920997</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9306311967764533</v>
+        <v>0.8827698271431266</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8508802793527764</v>
+        <v>0.9376015725192158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3243801123829743</v>
+        <v>0.2352532786074258</v>
       </c>
       <c r="H11" t="n">
-        <v>1.859277191659606</v>
+        <v>1.24756490153942</v>
       </c>
       <c r="I11" t="n">
-        <v>1.157332424023654</v>
+        <v>0.4105909184841973</v>
       </c>
       <c r="J11" t="n">
-        <v>0.759530339350285</v>
+        <v>0.7182554909967912</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9584310360068869</v>
+        <v>0.5644232047404942</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7405554448488515</v>
+        <v>0.7718847298006303</v>
       </c>
       <c r="M11" t="n">
-        <v>0.569543775651156</v>
+        <v>0.4850291523273893</v>
       </c>
       <c r="N11" t="n">
-        <v>1.023759525294178</v>
+        <v>1.017231346837356</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5937904332987741</v>
+        <v>0.5056778474907262</v>
       </c>
       <c r="P11" t="n">
-        <v>148.2516785289359</v>
+        <v>148.8941851278381</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.2296137443145</v>
+        <v>237.8721203432168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_2</t>
+          <t>model_14_2_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9598597689548153</v>
+        <v>0.9505355701750989</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7214197423400008</v>
+        <v>0.8132870138699813</v>
       </c>
       <c r="D12" t="n">
-        <v>0.592849005403923</v>
+        <v>0.9169165536833375</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9902445561107738</v>
+        <v>0.8182708998195038</v>
       </c>
       <c r="F12" t="n">
-        <v>0.940377726280018</v>
+        <v>0.8880171499197937</v>
       </c>
       <c r="G12" t="n">
-        <v>0.268417909827919</v>
+        <v>0.33076887000187</v>
       </c>
       <c r="H12" t="n">
-        <v>1.862867465716552</v>
+        <v>1.248550597985684</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6596017267285003</v>
+        <v>0.9124425459154034</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1068139460878224</v>
+        <v>1.113432838130411</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3832077831322871</v>
+        <v>1.012937692022907</v>
       </c>
       <c r="L12" t="n">
-        <v>0.563881047067075</v>
+        <v>0.9620787881820495</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5180906386221614</v>
+        <v>0.5751250907427617</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019660521328254</v>
+        <v>1.024227475832605</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5401468297037783</v>
+        <v>0.5996093565287447</v>
       </c>
       <c r="P12" t="n">
-        <v>148.6304202959779</v>
+        <v>148.2126708509093</v>
       </c>
       <c r="Q12" t="n">
-        <v>237.6083555113565</v>
+        <v>237.1906060662879</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_13</t>
+          <t>model_14_2_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9496399624128017</v>
+        <v>0.949217390343232</v>
       </c>
       <c r="C13" t="n">
-        <v>0.720723550366156</v>
+        <v>0.8127021040612571</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2542761093805689</v>
+        <v>0.9139261456656615</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9262847840534958</v>
+        <v>0.8133539127680601</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8432283160784035</v>
+        <v>0.8845365581870563</v>
       </c>
       <c r="G13" t="n">
-        <v>0.336757803232246</v>
+        <v>0.3395835446072237</v>
       </c>
       <c r="H13" t="n">
-        <v>1.867522904651322</v>
+        <v>1.252461892569884</v>
       </c>
       <c r="I13" t="n">
-        <v>1.208104050938775</v>
+        <v>0.9452839316058147</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8071199210789172</v>
+        <v>1.143558639899648</v>
       </c>
       <c r="K13" t="n">
-        <v>1.00761218425953</v>
+        <v>1.044421285752732</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7497809438458066</v>
+        <v>0.9718703688217377</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5803083690868555</v>
+        <v>0.5827379725118518</v>
       </c>
       <c r="N13" t="n">
-        <v>1.024666140859036</v>
+        <v>1.024873114933927</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6050132977628117</v>
+        <v>0.6075463344355825</v>
       </c>
       <c r="P13" t="n">
-        <v>148.1767825835565</v>
+        <v>148.1600705618783</v>
       </c>
       <c r="Q13" t="n">
-        <v>237.1547177989352</v>
+        <v>237.1380057772569</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_14</t>
+          <t>model_14_2_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9478551796503752</v>
+        <v>0.9479860984817109</v>
       </c>
       <c r="C14" t="n">
-        <v>0.719506966196273</v>
+        <v>0.8121261694622773</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224669896427388</v>
+        <v>0.9111846245203047</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9222992365241437</v>
+        <v>0.8088278671316127</v>
       </c>
       <c r="F14" t="n">
-        <v>0.836102280849319</v>
+        <v>0.8813394224400043</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3486926537827608</v>
+        <v>0.3478171989547936</v>
       </c>
       <c r="H14" t="n">
-        <v>1.875658208597185</v>
+        <v>1.256313169885197</v>
       </c>
       <c r="I14" t="n">
-        <v>1.256067360484865</v>
+        <v>0.9753919813371201</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8507583309518724</v>
+        <v>1.171289189566665</v>
       </c>
       <c r="K14" t="n">
-        <v>1.053413056857666</v>
+        <v>1.07334088640929</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7579838175864674</v>
+        <v>0.9806620677774673</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5905020353756292</v>
+        <v>0.589760289401375</v>
       </c>
       <c r="N14" t="n">
-        <v>1.025540320171245</v>
+        <v>1.025476196662019</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6156409295292967</v>
+        <v>0.6148676058932928</v>
       </c>
       <c r="P14" t="n">
-        <v>148.1071287859301</v>
+        <v>148.1121564551615</v>
       </c>
       <c r="Q14" t="n">
-        <v>237.0850640013088</v>
+        <v>237.0900916705402</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_15</t>
+          <t>model_14_2_17</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9461529934004871</v>
+        <v>0.9468418457582944</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7183257309417608</v>
+        <v>0.8115678388546333</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1968806249979648</v>
+        <v>0.9086762815971917</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9186553129043067</v>
+        <v>0.8046754617531314</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8294962464046094</v>
+        <v>0.8784104943079196</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3600751810736098</v>
+        <v>0.3554688221850789</v>
       </c>
       <c r="H15" t="n">
-        <v>1.883557134183196</v>
+        <v>1.260046729229388</v>
       </c>
       <c r="I15" t="n">
-        <v>1.301087148383354</v>
+        <v>1.002939211312041</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8906562449265774</v>
+        <v>1.196730489287174</v>
       </c>
       <c r="K15" t="n">
-        <v>1.095871749841128</v>
+        <v>1.099834422697123</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7652842221703756</v>
+        <v>0.9885624333094143</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6000626476240708</v>
+        <v>0.5962120614220069</v>
       </c>
       <c r="N15" t="n">
-        <v>1.026374044048741</v>
+        <v>1.026036646975529</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6256085568343502</v>
+        <v>0.6215940432058521</v>
       </c>
       <c r="P15" t="n">
-        <v>148.0428848660393</v>
+        <v>148.0686354697852</v>
       </c>
       <c r="Q15" t="n">
-        <v>237.020820081418</v>
+        <v>237.0465706851639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_16</t>
+          <t>model_14_2_3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9445437399691335</v>
+        <v>0.9652032515952518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7171930390806205</v>
+        <v>0.8114292701015601</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1709370794210801</v>
+        <v>0.968579769827018</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9153321417799373</v>
+        <v>0.8877980119965219</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8233960197642811</v>
+        <v>0.9429265260723829</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3708362661790015</v>
+        <v>0.2326860168068451</v>
       </c>
       <c r="H16" t="n">
-        <v>1.891131449874208</v>
+        <v>1.260973339119239</v>
       </c>
       <c r="I16" t="n">
-        <v>1.343116782811607</v>
+        <v>0.3450645836598386</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9270421875192069</v>
+        <v>0.6874483933641076</v>
       </c>
       <c r="K16" t="n">
-        <v>1.135079485165407</v>
+        <v>0.5162564885119731</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7717855778806918</v>
+        <v>0.7376903140923444</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6089632716174281</v>
+        <v>0.4823753899266059</v>
       </c>
       <c r="N16" t="n">
-        <v>1.027162249811037</v>
+        <v>1.017043305341101</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6348880988179364</v>
+        <v>0.5029111089304961</v>
       </c>
       <c r="P16" t="n">
-        <v>147.9839892896876</v>
+        <v>148.9161306031089</v>
       </c>
       <c r="Q16" t="n">
-        <v>236.9619245050663</v>
+        <v>237.8940658184875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_1</t>
+          <t>model_14_2_18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9561946904274274</v>
+        <v>0.9457830676528217</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7167137109404844</v>
+        <v>0.8110330539950058</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5970185312633594</v>
+        <v>0.9063848214643232</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9952509393527249</v>
+        <v>0.8008776981427678</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9451675137424794</v>
+        <v>0.8757332340842299</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2929263068166967</v>
+        <v>0.3625488762515994</v>
       </c>
       <c r="H17" t="n">
-        <v>1.894336719354401</v>
+        <v>1.263622838048176</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6528469195610714</v>
+        <v>1.028104581914618</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05199823951691865</v>
+        <v>1.219998940575579</v>
       </c>
       <c r="K17" t="n">
-        <v>0.352422579538995</v>
+        <v>1.124051504062588</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5358909060081727</v>
+        <v>0.9956726232087907</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5412266686118642</v>
+        <v>0.6021203170892006</v>
       </c>
       <c r="N17" t="n">
-        <v>1.021455661831464</v>
+        <v>1.026555232170046</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5642678083883272</v>
+        <v>0.6277538255485736</v>
       </c>
       <c r="P17" t="n">
-        <v>148.4556684283413</v>
+        <v>148.0291919654748</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.4336036437199</v>
+        <v>237.0071271808534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_17</t>
+          <t>model_14_2_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9430328631142176</v>
+        <v>0.9448069376929509</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7161173830799883</v>
+        <v>0.8105256768859588</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1468264060435402</v>
+        <v>0.904295307977926</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9123069423381938</v>
+        <v>0.7974115291542903</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8177805806849738</v>
+        <v>0.8732908877915921</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3809395066647724</v>
+        <v>0.3690762617879209</v>
       </c>
       <c r="H18" t="n">
-        <v>1.898324366503376</v>
+        <v>1.26701567111263</v>
       </c>
       <c r="I18" t="n">
-        <v>1.382177087228128</v>
+        <v>1.051052125496118</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9601655895647225</v>
+        <v>1.241235750588103</v>
       </c>
       <c r="K18" t="n">
-        <v>1.171171365374506</v>
+        <v>1.146143678132217</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7775748998161834</v>
+        <v>1.002064452175661</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6172029703952926</v>
+        <v>0.6075164703840719</v>
       </c>
       <c r="N18" t="n">
-        <v>1.02790227112773</v>
+        <v>1.027033336640187</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6434785786313025</v>
+        <v>0.6333797042607848</v>
       </c>
       <c r="P18" t="n">
-        <v>147.9302293832392</v>
+        <v>147.9935039695665</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.9081645986179</v>
+        <v>236.9714391849451</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_18</t>
+          <t>model_14_2_20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9416226636582909</v>
+        <v>0.9439096519767586</v>
       </c>
       <c r="C19" t="n">
-        <v>0.71510386960491</v>
+        <v>0.8100480066542179</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1245081598592851</v>
+        <v>0.9023921550243931</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9095577286744698</v>
+        <v>0.7942542363427408</v>
       </c>
       <c r="F19" t="n">
-        <v>0.812626068294705</v>
+        <v>0.8710662515017809</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3903695169199256</v>
+        <v>0.3750764155037197</v>
       </c>
       <c r="H19" t="n">
-        <v>1.905101735778024</v>
+        <v>1.27020985415175</v>
       </c>
       <c r="I19" t="n">
-        <v>1.41833358424293</v>
+        <v>1.071953012534067</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9902671783181796</v>
+        <v>1.260580112566898</v>
       </c>
       <c r="K19" t="n">
-        <v>1.20430075046773</v>
+        <v>1.166266562550482</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7827364056519062</v>
+        <v>1.007816749970095</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6247955801059459</v>
+        <v>0.6124348255151072</v>
       </c>
       <c r="N19" t="n">
-        <v>1.028592981065327</v>
+        <v>1.027472823521588</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6513944214562072</v>
+        <v>0.638507443952147</v>
       </c>
       <c r="P19" t="n">
-        <v>147.8813230183035</v>
+        <v>147.9612509981887</v>
       </c>
       <c r="Q19" t="n">
-        <v>236.8592582336821</v>
+        <v>236.9391862135674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_19</t>
+          <t>model_14_2_21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9403126635502423</v>
+        <v>0.9430870172687218</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7141550185164097</v>
+        <v>0.8096011212874199</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1039148181397144</v>
+        <v>0.9006610077501946</v>
       </c>
       <c r="E20" t="n">
-        <v>0.907062816350073</v>
+        <v>0.7913829970103375</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8079056895734492</v>
+        <v>0.8690429101204654</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3991294936744428</v>
+        <v>0.3805773775842468</v>
       </c>
       <c r="H20" t="n">
-        <v>1.911446707375883</v>
+        <v>1.273198178657246</v>
       </c>
       <c r="I20" t="n">
-        <v>1.451695663514809</v>
+        <v>1.090964891509378</v>
       </c>
       <c r="J20" t="n">
-        <v>1.017584380235179</v>
+        <v>1.278171858498915</v>
       </c>
       <c r="K20" t="n">
-        <v>1.234639846118673</v>
+        <v>1.184568639587244</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7873488358539639</v>
+        <v>1.012993743882062</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6317669615249304</v>
+        <v>0.616909537601946</v>
       </c>
       <c r="N20" t="n">
-        <v>1.02923461377131</v>
+        <v>1.027875746643891</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6586625890149468</v>
+        <v>0.6431726537964535</v>
       </c>
       <c r="P20" t="n">
-        <v>147.8369387383916</v>
+        <v>147.9321315294178</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.8148739537702</v>
+        <v>236.9100667447964</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_20</t>
+          <t>model_14_2_22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9391008615989269</v>
+        <v>0.942334455195255</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7132713832662704</v>
+        <v>0.8091851816847767</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08497325795042876</v>
+        <v>0.8990880018301534</v>
       </c>
       <c r="E21" t="n">
-        <v>0.904801190288648</v>
+        <v>0.7887752224928396</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8035920205701479</v>
+        <v>0.8672048430072118</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4072328189027236</v>
+        <v>0.3856097636347485</v>
       </c>
       <c r="H21" t="n">
-        <v>1.917355580362331</v>
+        <v>1.275979568695347</v>
       </c>
       <c r="I21" t="n">
-        <v>1.482381787271376</v>
+        <v>1.108240023801701</v>
       </c>
       <c r="J21" t="n">
-        <v>1.042347292813935</v>
+        <v>1.294149386475106</v>
       </c>
       <c r="K21" t="n">
-        <v>1.262364913157966</v>
+        <v>1.201194823490841</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7914580985028895</v>
+        <v>1.017651942441162</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6381479600396162</v>
+        <v>0.6209748494381625</v>
       </c>
       <c r="N21" t="n">
-        <v>1.029828149420934</v>
+        <v>1.028244348475793</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6653152398468906</v>
+        <v>0.6474110343738934</v>
       </c>
       <c r="P21" t="n">
-        <v>147.7967404409482</v>
+        <v>147.9058587918736</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7746756563268</v>
+        <v>236.8837940072522</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_21</t>
+          <t>model_14_2_23</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9379835870156297</v>
+        <v>0.9416473439754375</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7124521200687082</v>
+        <v>0.808799744727754</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06759177076990897</v>
+        <v>0.8976601351887403</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9027529388561513</v>
+        <v>0.7864096313509077</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7996568663639345</v>
+        <v>0.8655369454307891</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4147040391858086</v>
+        <v>0.3902044795255248</v>
       </c>
       <c r="H22" t="n">
-        <v>1.92283399713679</v>
+        <v>1.278556987401732</v>
       </c>
       <c r="I22" t="n">
-        <v>1.510540527172661</v>
+        <v>1.123921201356047</v>
       </c>
       <c r="J22" t="n">
-        <v>1.064773931782833</v>
+        <v>1.308643085373089</v>
       </c>
       <c r="K22" t="n">
-        <v>1.287657167638716</v>
+        <v>1.216281743678906</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7951379159709221</v>
+        <v>1.021846186807224</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6439751852251829</v>
+        <v>0.6246634930308677</v>
       </c>
       <c r="N22" t="n">
-        <v>1.030375385951528</v>
+        <v>1.028580892746725</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6713905420726261</v>
+        <v>0.6512567111608848</v>
       </c>
       <c r="P22" t="n">
-        <v>147.7603803435168</v>
+        <v>147.8821687415667</v>
       </c>
       <c r="Q22" t="n">
-        <v>236.7383155588954</v>
+        <v>236.8601039569454</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_22</t>
+          <t>model_14_2_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9369564979233128</v>
+        <v>0.9649185421299263</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7116953910542684</v>
+        <v>0.808522252060444</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05167620847151932</v>
+        <v>0.9746080526731554</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9008995166925138</v>
+        <v>0.8912464122149034</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7960723347114103</v>
+        <v>0.9477539107541957</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4215721886754425</v>
+        <v>0.2345898703124432</v>
       </c>
       <c r="H23" t="n">
-        <v>1.927894247540766</v>
+        <v>1.28041258214577</v>
       </c>
       <c r="I23" t="n">
-        <v>1.536324407141535</v>
+        <v>0.2788605202575644</v>
       </c>
       <c r="J23" t="n">
-        <v>1.085067353313695</v>
+        <v>0.6663204505175924</v>
       </c>
       <c r="K23" t="n">
-        <v>1.310695880227615</v>
+        <v>0.4725905173869316</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7984197371010899</v>
+        <v>0.6991072077689851</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6492859067278779</v>
+        <v>0.4843447845413876</v>
       </c>
       <c r="N23" t="n">
-        <v>1.030878449996745</v>
+        <v>1.017182754875138</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6769273519843998</v>
+        <v>0.5049643447512377</v>
       </c>
       <c r="P23" t="n">
-        <v>147.7275285001414</v>
+        <v>148.8998330444877</v>
       </c>
       <c r="Q23" t="n">
-        <v>236.70546371552</v>
+        <v>237.8777682598663</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_23</t>
+          <t>model_14_2_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9360147545629529</v>
+        <v>0.9410210804011474</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7109986482838921</v>
+        <v>0.8084439026569351</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03713356425262537</v>
+        <v>0.8963649977159062</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8992234014051518</v>
+        <v>0.7842664056302685</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7928118559113425</v>
+        <v>0.8640247995596073</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4278696308624984</v>
+        <v>0.3943923069304809</v>
       </c>
       <c r="H24" t="n">
-        <v>1.932553369654478</v>
+        <v>1.2809365049678</v>
       </c>
       <c r="I24" t="n">
-        <v>1.55988410210801</v>
+        <v>1.138144715009046</v>
       </c>
       <c r="J24" t="n">
-        <v>1.103419412940525</v>
+        <v>1.321774377469485</v>
       </c>
       <c r="K24" t="n">
-        <v>1.331651821270585</v>
+        <v>1.229959816237872</v>
       </c>
       <c r="L24" t="n">
-        <v>0.801355953283969</v>
+        <v>1.025623930881881</v>
       </c>
       <c r="M24" t="n">
-        <v>0.654117444242621</v>
+        <v>0.6280066137633273</v>
       </c>
       <c r="N24" t="n">
-        <v>1.031339712050799</v>
+        <v>1.028887634089234</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6819645780538069</v>
+        <v>0.6547421554641393</v>
       </c>
       <c r="P24" t="n">
-        <v>147.6978734611783</v>
+        <v>147.8608183243965</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.6758086765569</v>
+        <v>236.8387535397752</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_24</t>
+          <t>model_14_2_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9351531194422542</v>
+        <v>0.9637300673260984</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7103589339000196</v>
+        <v>0.8044614539800562</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0238663566897066</v>
+        <v>0.9805673342455281</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8977086575639732</v>
+        <v>0.8924834907872684</v>
       </c>
       <c r="F25" t="n">
-        <v>0.789849581155853</v>
+        <v>0.9517905230126578</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4336313888820753</v>
+        <v>0.2425372067980633</v>
       </c>
       <c r="H25" t="n">
-        <v>1.936831142685047</v>
+        <v>1.307567157607579</v>
       </c>
       <c r="I25" t="n">
-        <v>1.581377536076035</v>
+        <v>0.2134142455688837</v>
       </c>
       <c r="J25" t="n">
-        <v>1.120004590286189</v>
+        <v>0.6587410154989269</v>
       </c>
       <c r="K25" t="n">
-        <v>1.350691127745397</v>
+        <v>0.4360774557730379</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8039856767858464</v>
+        <v>0.6555425555987335</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6585069391297826</v>
+        <v>0.4924806664205848</v>
       </c>
       <c r="N25" t="n">
-        <v>1.031761737416039</v>
+        <v>1.017764864983135</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6865409428258221</v>
+        <v>0.5134465879656297</v>
       </c>
       <c r="P25" t="n">
-        <v>147.6711208802872</v>
+        <v>148.8332003005574</v>
       </c>
       <c r="Q25" t="n">
-        <v>236.6490560956659</v>
+        <v>237.811135515936</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9503258805627117</v>
+        <v>0.9613437131426853</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7098209823707731</v>
+        <v>0.7989303144576664</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5860619141000851</v>
+        <v>0.9862749741323207</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9987453129164368</v>
+        <v>0.890749619185668</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9467630807137342</v>
+        <v>0.9546681542315888</v>
       </c>
       <c r="G26" t="n">
-        <v>0.332171065405435</v>
+        <v>0.2584947682106978</v>
       </c>
       <c r="H26" t="n">
-        <v>1.940428427038157</v>
+        <v>1.344553913062355</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6705970999509498</v>
+        <v>0.1507315608662777</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01373777349576253</v>
+        <v>0.6693642430194848</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3421674576903173</v>
+        <v>0.4100479242571916</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5070220985958802</v>
+        <v>0.6063027334953882</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5763428366913524</v>
+        <v>0.5084238076749532</v>
       </c>
       <c r="N26" t="n">
-        <v>1.024330180948876</v>
+        <v>1.01893369152195</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6008789444434485</v>
+        <v>0.5300684617500487</v>
       </c>
       <c r="P26" t="n">
-        <v>148.2042103710396</v>
+        <v>148.7057596485373</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.1821455864182</v>
+        <v>237.6836948639159</v>
       </c>
     </row>
   </sheetData>
